--- a/medicine/Psychotrope/Hermitage_(AOC)/Hermitage_(AOC).xlsx
+++ b/medicine/Psychotrope/Hermitage_(AOC)/Hermitage_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un hermitage[2], ou ermitage ou l'hermitage, est un vin d'appellation d'origine contrôlée produit sur les communes de Tain-l'Hermitage, de Crozes-Hermitage et de Larnage, dans le département de la Drôme.
+Un hermitage, ou ermitage ou l'hermitage, est un vin d'appellation d'origine contrôlée produit sur les communes de Tain-l'Hermitage, de Crozes-Hermitage et de Larnage, dans le département de la Drôme.
 Il s'agit d'une appellation du vignoble de la vallée du Rhône septentrionale, sur la rive gauche du Rhône, enclavée dans l'appellation crozes-hermitage, en face de la ville de Tournon-sur-Rhône et de l'appellation saint-joseph.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On attribue l'origine de l'appellation au chevalier Sterimberg qui, rentrant de la croisade contre les Cathares voulait se repentir en vivant dans un ermitage sur la colline de Tain[3].
-Dès 1816, et dans les éditions suivantes, A. Jullien, dans sa Topographie de tous les vignobles connus[4] classe par trois fois en première classe les vins rouges, blancs et de paille de l'Hermitage. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On attribue l'origine de l'appellation au chevalier Sterimberg qui, rentrant de la croisade contre les Cathares voulait se repentir en vivant dans un ermitage sur la colline de Tain.
+Dès 1816, et dans les éditions suivantes, A. Jullien, dans sa Topographie de tous les vignobles connus classe par trois fois en première classe les vins rouges, blancs et de paille de l'Hermitage. 
 Pour les rouges, il cite même les lieux-dits : Méal, Greffieux, Beaume, Rancoule, Muret, Guiognoères, Bessards, Les Burges et les Lauds.
 </t>
         </is>
@@ -548,16 +562,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-La colline de l'Hermitage se subdivise en trois parties ou mamelons. En partant de l'ouest sur la rive gauche, on trouve tout d'abord : 
-Les Bessards, terroir qui est considéré comme le meilleur pour les rouges de l'appellation. C'est sur ce coteau qu'on trouve la chapelle de l'Hermitage ainsi que le célèbre vignoble de l'Ermite[3].
-La partie centrale qui se divise en deux. Sur la partie supérieure, le Méal produit les vins les plus solaires de l'appellation grâce notamment à son exposition plein sud. Sur le bas, se trouvent les Greffieux, à la terre plus fertile[3].
-Les quartiers des Murets et des Dionniers à la pente beaucoup moins accentuée et avec une exposition à l'est sont le grand terroir de blancs[3].
-Géologie
-Le terroir exceptionnel de ce vignoble, est composé d’arènes granitiques sur des gneiss et des micaschistes. Ponctuellement il est couvert de poches de cailloux ronds reliquats des couches alluvionnaires des anciennes terrasses du Rhône. D’où la caractérisation des lieux-dits que sont, par exemple, les Bessards, le Méal, Greffieux ou Chante-Alouette[3].
-Les Bessards ont un terroir au sol granitique et très accidenté. Le Méal, possède un sol calcaire et siliceux avec en surface des galets roulés. Tandis que les Greffieux, issus du ravinement, sont composés d'une terre relativement plus fertile. Les quartiers des Murets et des Dionniers possèdent un sol argileux[3].
-Climatologie
-Ce terroir viticole bénéficie d'un climat tempéré dont la principale caractéristique est le vent fréquent qui souffle le long du couloir rhodanien. Ce vent, lorsqu'il vient du nord, est baptisé mistral  et a pour effet d'assécher l'air et d'apporter du beau temps et de la fraîcheur en été, mais une impression de froid glacial en hiver. Lorsqu'il provient du sud, il annonce généralement l'arrivée de perturbations orageuses ; il s'appelle alors « vent du midi » ou « vent des fous » car, pour certaines personnes, il rend l'atmosphère pénible à supporter, surtout en été.
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La colline de l'Hermitage se subdivise en trois parties ou mamelons. En partant de l'ouest sur la rive gauche, on trouve tout d'abord : 
+Les Bessards, terroir qui est considéré comme le meilleur pour les rouges de l'appellation. C'est sur ce coteau qu'on trouve la chapelle de l'Hermitage ainsi que le célèbre vignoble de l'Ermite.
+La partie centrale qui se divise en deux. Sur la partie supérieure, le Méal produit les vins les plus solaires de l'appellation grâce notamment à son exposition plein sud. Sur le bas, se trouvent les Greffieux, à la terre plus fertile.
+Les quartiers des Murets et des Dionniers à la pente beaucoup moins accentuée et avec une exposition à l'est sont le grand terroir de blancs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir exceptionnel de ce vignoble, est composé d’arènes granitiques sur des gneiss et des micaschistes. Ponctuellement il est couvert de poches de cailloux ronds reliquats des couches alluvionnaires des anciennes terrasses du Rhône. D’où la caractérisation des lieux-dits que sont, par exemple, les Bessards, le Méal, Greffieux ou Chante-Alouette.
+Les Bessards ont un terroir au sol granitique et très accidenté. Le Méal, possède un sol calcaire et siliceux avec en surface des galets roulés. Tandis que les Greffieux, issus du ravinement, sont composés d'une terre relativement plus fertile. Les quartiers des Murets et des Dionniers possèdent un sol argileux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole bénéficie d'un climat tempéré dont la principale caractéristique est le vent fréquent qui souffle le long du couloir rhodanien. Ce vent, lorsqu'il vient du nord, est baptisé mistral  et a pour effet d'assécher l'air et d'apporter du beau temps et de la fraîcheur en été, mais une impression de froid glacial en hiver. Lorsqu'il provient du sud, il annonce généralement l'arrivée de perturbations orageuses ; il s'appelle alors « vent du midi » ou « vent des fous » car, pour certaines personnes, il rend l'atmosphère pénible à supporter, surtout en été.
 Source : (fr) Données de Tournon 1961 à 1990
 À partir de cette latitude, l'influence du climat méditerranéen se fait directement sentir. L'ensoleillement annuel est élevé (environ 2 100 heures à Valence, (estimation de Météofrance). Les étés y sont chauds et secs. La température moyenne du mois de juillet est de 20 °C (Montélimar 23 °C). Les hivers froids sans excès s'inscrivent plutôt dans un climat de type semi-continental dégradé. La température moyenne du mois le plus froid (janvier) est ainsi de 3,5 °C.
 La pluviométrie annuelle est modérée : environ 630 mm. Les pluies sont particulièrement importantes à la fin de l'été (particulièrement en septembre à cause de l'effet cévenol ou orage cévenol qui déverse des trombes d'eau).
@@ -565,69 +653,143 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hermitage_(AOC)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de l’appellation couvre 136 hectares, produit 3 635 hectolitres[Quand ?] et son rendement moyen est de 27 hl/ha, pourtant il est limité à 40 hl/ha. Ce grand vin, qui se présente en rouge et en blanc, est produit par trois communes de la Drôme : Tain, Crozes et Larnage.
-Encépagement
-Le vin rouge, à base de syrah, peut recevoir un ajout de 15 % de roussanne et de marsanne. Sa robe somptueuse est d’un rouge rubis profond. Ses arômes de fruits rouges, dans sa jeunesse, évoluent, au fur et à mesure de son vieillissement vers des notes de fruits à noyau et d’olives vertes pour arriver ensuite vers un nez où dominent les senteurs de sous-bois, de cuir et de truffe. En prenant de l’âge, ce vin puissant, charnu et vigoureux acquiert alors une étonnante rondeur et une grande souplesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin rouge, à base de syrah, peut recevoir un ajout de 15 % de roussanne et de marsanne. Sa robe somptueuse est d’un rouge rubis profond. Ses arômes de fruits rouges, dans sa jeunesse, évoluent, au fur et à mesure de son vieillissement vers des notes de fruits à noyau et d’olives vertes pour arriver ensuite vers un nez où dominent les senteurs de sous-bois, de cuir et de truffe. En prenant de l’âge, ce vin puissant, charnu et vigoureux acquiert alors une étonnante rondeur et une grande souplesse.
 Le vin blanc, à la superbe robe jaune doré, assemble roussanne et marsanne. Il est caractérisé par sa floralité où se décèlent des fragrances d’iris, de narcisse et de tilleul. Au cours de son vieillissement apparaîtront des notes de vanille et d’amandes grillées. C’est toujours un vin souple, gras et de longue persistance aromatique. 
 Comparaison de l'encépagement de l'AOC hermitage avec les autres appellations locales des côtes-du-rhône septentrionales
 Dans les décrets d'appellation, une division est faite entre le cépages principaux (indiqué par "M"), les variétés supplémentaires (indiqué par "S") et celles autorisées (indiqué par "(A)").
-Étymologie
-Gaspard de Stérimberg, de retour de la sauvage croisade contre les Albigeois, passe pour avoir planté ce vignoble. Son ermitage domine encore la colline et a été seulement à l’origine du nom actuel de cette A.O.C. dont l’antiquité remonte aux fameux vins de Vienne. L’exceptionnel «vin de paille » que certains producteurs ont remis à l’honneur est d’ailleurs l’héritier direct des méthodes de vinification gallo-romaines[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hermitage_(AOC)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaspard de Stérimberg, de retour de la sauvage croisade contre les Albigeois, passe pour avoir planté ce vignoble. Son ermitage domine encore la colline et a été seulement à l’origine du nom actuel de cette A.O.C. dont l’antiquité remonte aux fameux vins de Vienne. L’exceptionnel «vin de paille » que certains producteurs ont remis à l’honneur est d’ailleurs l’héritier direct des méthodes de vinification gallo-romaines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Terroir et vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terroir est constitué d’arènes granitiques recouvertes de micaschistes et de gneiss ainsi que de plages de cailloux ronds. La syrah, qui peut être mâtinée de roussanne et de marsanne, produit un vin à la robe brillante d’un beau rouge rubis foncé. 
 Son nez dégage des arômes de fruits rouges et un bouquet de fleurs sauvages qui évoluera avec l’âge vers des nuances de fruits à noyau, d’olive et de cuir. Sa bouche, riche et subtile, gagne en souplesse et en rondeur avec l’âge pour passer des arômes de violette, de fruits rouges et noirs de sa jeunesse à des saveurs persistantes de fruits confits, de sous-bois et de truffe noire. 
@@ -640,35 +802,72 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hermitage_(AOC)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vin de paille</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme le Jura, Hermitage est habilité à produire des vins de paille. Ceux-ci sont vinifiés à partir des cépages blancs de l'appellation dont les moûts doivent contenir un minimum de 225 g de sucre résiduel par litre. Leur production est rarissime.
-Millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermitage_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vin de paille</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Millésimes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
 </t>
         </is>
